--- a/Ej2/Mediciones/labo_tp5_ej2_mediciones.xlsx
+++ b/Ej2/Mediciones/labo_tp5_ej2_mediciones.xlsx
@@ -1,30 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rochi\Google Drive\Materias\Laboratorio de electrónica\TPs\Labo-de-Electro-tp5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomas\Desktop\ITBA\7° Cuatrimestre\Laboratorio de Electrónica\Trabajos Prácticos\Labo-de-Electro-tp5\Ej2\Mediciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A04DE98C-EB1B-4403-9B7D-C648F5D0CB73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20493" windowHeight="6933" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
     <t>armonico</t>
   </si>
@@ -43,13 +49,24 @@
   <si>
     <t>PULSOS</t>
   </si>
+  <si>
+    <t>P</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -77,8 +94,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -97,7 +116,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -392,16 +411,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.9375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="4" max="4" width="11.64453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.64453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.64453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -411,20 +435,35 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" t="s">
         <v>0</v>
       </c>
-      <c r="M1" t="s">
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>1</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -435,6 +474,10 @@
       <c r="C2">
         <v>-11.8</v>
       </c>
+      <c r="D2">
+        <f>10^(C2/10-3)</f>
+        <v>6.6069344800759539E-5</v>
+      </c>
       <c r="H2">
         <v>1</v>
       </c>
@@ -445,18 +488,26 @@
       <c r="J2">
         <v>-15.4</v>
       </c>
-      <c r="M2">
+      <c r="K2">
+        <f>10^(J2/10-3)</f>
+        <v>2.8840315031266029E-5</v>
+      </c>
+      <c r="P2">
         <v>1</v>
       </c>
-      <c r="N2">
-        <f>0.2*M2</f>
+      <c r="Q2">
+        <f>0.2*P2</f>
         <v>0.2</v>
       </c>
-      <c r="O2">
+      <c r="R2">
         <v>-13.4</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S2">
+        <f>10^(R2/10-3)</f>
+        <v>4.5708818961487455E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -467,28 +518,40 @@
       <c r="C3">
         <v>-62.4</v>
       </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D12" si="1">10^(C3/10-3)</f>
+        <v>5.7543993733715462E-10</v>
+      </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I15" si="1">0.2*H3</f>
+        <f t="shared" ref="I3:I15" si="2">0.2*H3</f>
         <v>0.4</v>
       </c>
       <c r="J3">
         <v>-56</v>
       </c>
-      <c r="M3">
+      <c r="K3">
+        <f t="shared" ref="K3:K6" si="3">10^(J3/10-3)</f>
+        <v>2.5118864315095812E-9</v>
+      </c>
+      <c r="P3">
         <v>2</v>
       </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N15" si="2">0.2*M3</f>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q15" si="4">0.2*P3</f>
         <v>0.4</v>
       </c>
-      <c r="O3">
+      <c r="R3">
         <v>-19</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S3">
+        <f t="shared" ref="S3:S12" si="5">10^(R3/10-3)</f>
+        <v>1.2589254117941658E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -499,28 +562,40 @@
       <c r="C4">
         <v>-21</v>
       </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>7.9432823472428065E-6</v>
+      </c>
       <c r="H4">
         <v>3</v>
       </c>
       <c r="I4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="J4">
         <v>-34.200000000000003</v>
       </c>
-      <c r="M4">
+      <c r="K4">
+        <f t="shared" si="3"/>
+        <v>3.8018939632056089E-7</v>
+      </c>
+      <c r="P4">
         <v>3</v>
       </c>
-      <c r="N4">
-        <f t="shared" si="2"/>
+      <c r="Q4">
+        <f t="shared" si="4"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="O4">
+      <c r="R4">
         <v>-50.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S4">
+        <f t="shared" si="5"/>
+        <v>8.7096358995607965E-9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -531,28 +606,40 @@
       <c r="C5">
         <v>-71</v>
       </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>7.943282347242792E-11</v>
+      </c>
       <c r="H5">
         <v>4</v>
       </c>
       <c r="I5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
       <c r="J5">
         <v>-69.8</v>
       </c>
-      <c r="M5">
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>1.0471285480508951E-10</v>
+      </c>
+      <c r="P5">
         <v>4</v>
       </c>
-      <c r="N5">
-        <f t="shared" si="2"/>
+      <c r="Q5">
+        <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
-      <c r="O5">
+      <c r="R5">
         <v>-25.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S5">
+        <f t="shared" si="5"/>
+        <v>3.0199517204020146E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -563,28 +650,40 @@
       <c r="C6">
         <v>-25.6</v>
       </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>2.7542287033381612E-6</v>
+      </c>
       <c r="H6">
         <v>5</v>
       </c>
       <c r="I6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J6">
         <v>-43</v>
       </c>
-      <c r="M6">
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>5.0118723362727164E-8</v>
+      </c>
+      <c r="P6">
         <v>5</v>
       </c>
-      <c r="N6">
-        <f t="shared" si="2"/>
+      <c r="Q6">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="O6">
+      <c r="R6">
         <v>-26.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S6">
+        <f t="shared" si="5"/>
+        <v>2.1877616239495505E-6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -595,25 +694,26 @@
       <c r="C7">
         <v>-70</v>
       </c>
-      <c r="H7">
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>1E-10</v>
+      </c>
+      <c r="P7">
         <v>6</v>
       </c>
-      <c r="I7">
-        <f t="shared" si="1"/>
+      <c r="Q7">
+        <f t="shared" si="4"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="M7">
-        <v>6</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="2"/>
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="O7">
+      <c r="R7">
         <v>-50</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S7">
+        <f t="shared" si="5"/>
+        <v>1E-8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -622,27 +722,31 @@
         <v>11.9</v>
       </c>
       <c r="C8">
-        <v>28.4</v>
-      </c>
-      <c r="H8">
+        <v>-28.4</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>1.445439770745926E-6</v>
+      </c>
+      <c r="I8" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8">
         <v>7</v>
       </c>
-      <c r="I8">
-        <f t="shared" si="1"/>
+      <c r="Q8">
+        <f t="shared" si="4"/>
         <v>1.4000000000000001</v>
       </c>
-      <c r="M8">
-        <v>7</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="2"/>
-        <v>1.4000000000000001</v>
-      </c>
-      <c r="O8">
+      <c r="R8">
         <v>-30.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S8">
+        <f t="shared" si="5"/>
+        <v>9.12010839355909E-7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -653,25 +757,27 @@
       <c r="C9">
         <v>-72.400000000000006</v>
       </c>
-      <c r="H9">
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>5.7543993733715601E-11</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="P9">
         <v>8</v>
       </c>
-      <c r="I9">
-        <f t="shared" si="1"/>
+      <c r="Q9">
+        <f t="shared" si="4"/>
         <v>1.6</v>
       </c>
-      <c r="M9">
-        <v>8</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="2"/>
-        <v>1.6</v>
-      </c>
-      <c r="O9">
+      <c r="R9">
         <v>-30.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S9">
+        <f t="shared" si="5"/>
+        <v>8.3176377110266907E-7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -682,25 +788,26 @@
       <c r="C10">
         <v>-31.8</v>
       </c>
-      <c r="H10">
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>6.6069344800759506E-7</v>
+      </c>
+      <c r="P10">
         <v>9</v>
       </c>
-      <c r="I10">
-        <f t="shared" si="1"/>
+      <c r="Q10">
+        <f t="shared" si="4"/>
         <v>1.8</v>
       </c>
-      <c r="M10">
-        <v>9</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="2"/>
-        <v>1.8</v>
-      </c>
-      <c r="O10">
+      <c r="R10">
         <v>-50.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S10">
+        <f t="shared" si="5"/>
+        <v>8.3176377110267021E-9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -711,25 +818,26 @@
       <c r="C11">
         <v>-77.400000000000006</v>
       </c>
-      <c r="H11">
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>1.8197008586099764E-11</v>
+      </c>
+      <c r="P11">
         <v>10</v>
       </c>
-      <c r="I11">
-        <f t="shared" si="1"/>
+      <c r="Q11">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="M11">
-        <v>10</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O11">
+      <c r="R11">
         <v>-33.799999999999997</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S11">
+        <f t="shared" si="5"/>
+        <v>4.1686938347033493E-7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -740,105 +848,50 @@
       <c r="C12">
         <v>-35.799999999999997</v>
       </c>
-      <c r="H12">
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>2.6302679918953789E-7</v>
+      </c>
+      <c r="P12">
         <v>11</v>
       </c>
-      <c r="I12">
-        <f t="shared" si="1"/>
+      <c r="Q12">
+        <f t="shared" si="4"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="M12">
-        <v>11</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="2"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="O12">
+      <c r="R12">
         <v>-33.4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <f t="shared" si="0"/>
-        <v>20.399999999999999</v>
-      </c>
-      <c r="H13">
-        <v>12</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="1"/>
-        <v>2.4000000000000004</v>
-      </c>
-      <c r="M13">
-        <v>12</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="2"/>
-        <v>2.4000000000000004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <f t="shared" si="0"/>
-        <v>22.099999999999998</v>
-      </c>
-      <c r="H14">
-        <v>13</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="1"/>
-        <v>2.6</v>
-      </c>
-      <c r="M14">
-        <v>13</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="2"/>
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="0"/>
-        <v>23.8</v>
-      </c>
-      <c r="H15">
-        <v>14</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="1"/>
-        <v>2.8000000000000003</v>
-      </c>
-      <c r="M15">
-        <v>14</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="2"/>
-        <v>2.8000000000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="S12">
+        <f t="shared" si="5"/>
+        <v>4.5708818961487426E-7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="Q13" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="A14" s="1"/>
+      <c r="B14" t="s">
         <v>3</v>
       </c>
-      <c r="G16" t="s">
-        <v>4</v>
-      </c>
-      <c r="M16" t="s">
-        <v>5</v>
-      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="N16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>